--- a/biology/Botanique/Prospero_(plante)/Prospero_(plante).xlsx
+++ b/biology/Botanique/Prospero_(plante)/Prospero_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prospero est un genre de plantes à fleurs de la famille des Liliaceae dans la classification de Cronquist, ou bien des Asparagaceae dans la Classification APG III. Il est originaire du nord-ouest de l'Europe, des pourtours du bassin méditerranéen et de la mer Noire, et du Caucase[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prospero est un genre de plantes à fleurs de la famille des Liliaceae dans la classification de Cronquist, ou bien des Asparagaceae dans la Classification APG III. Il est originaire du nord-ouest de l'Europe, des pourtours du bassin méditerranéen et de la mer Noire, et du Caucase.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes à bulbe, avec des feuilles et des fleurs apparaissant à l'automne et disparaissant au printemps. Les feuilles sont relativement étroites. Chaque bulbe produit de un à quatre tiges fleuries, qui portent chacune un racème dense de fleurs roses à violettes. Les longs tépales (4 à 10 mm) ne sont pas joints. Les étamines ont les filets de la couleur des tépales, et de courtes anthères violettes. Les graines sont d'un brun foncé et sont plus ou moins oblongues.
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Prospero a été créé dans une publication posthume de Richard Anthony Salisbury en 1866, The Genera of Plants, A fragment containing part of Liriogamæ[2],[3]. Dans les années 1970, Franz Speta et ses co-auteurs ont éclaté le genre Scilla, et déplacé de nombreuses espèces dans des genres séparés. Ainsi, la Scille d'automne a été déplacé depuis Scilla autumnalis vers Prospero autumnale en 1982.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Prospero a été créé dans une publication posthume de Richard Anthony Salisbury en 1866, The Genera of Plants, A fragment containing part of Liriogamæ,. Dans les années 1970, Franz Speta et ses co-auteurs ont éclaté le genre Scilla, et déplacé de nombreuses espèces dans des genres séparés. Ainsi, la Scille d'automne a été déplacé depuis Scilla autumnalis vers Prospero autumnale en 1982.
 Le genre Prospero est classé dans les Liliaceae dans la classification de Cronquist, dans la famille des Hyacinthaceae dans la classification APG II, et dans la famille des Asparagaceae dans la classification APG III.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">17 espèces sont incluses dans ce genre, d'après (en) Référence POWO : Prospero (plante)  (consulté le 30 juillet 2023)
 Prospero autumnale (L.) Speta
